--- a/CPIC_ppt.xlsx
+++ b/CPIC_ppt.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="63">
   <si>
     <t>US_RealEstate</t>
   </si>
@@ -202,12 +203,30 @@
   </si>
   <si>
     <t>Asserted Expected Return</t>
+  </si>
+  <si>
+    <t>w_BL_unc</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>prior_ExpReturn</t>
+  </si>
+  <si>
+    <t>post_ExpReturn</t>
+  </si>
+  <si>
+    <t>View</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,13 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +282,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -369,8 +401,29 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,7 +743,7 @@
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F30" sqref="A27:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,16 +1029,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W34"/>
+  <dimension ref="B1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
@@ -1920,9 +1975,57 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="4:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="D33" s="18">
-        <v>7.2799263232308897E-2</v>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>0.100789</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.14183200000000001</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.13139700000000001</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.15299199999999999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.19708700000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.182198</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.25237199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="18">
+        <v>0.100789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="18">
+        <v>0.14183200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="18">
+        <v>0.13139700000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="18">
+        <v>0.15299199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="18">
+        <v>0.19708700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="19">
+        <v>0.182198</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
@@ -1935,9 +2038,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="D34" s="18">
-        <v>0.11834028601999801</v>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34" s="19">
+        <v>0.25237199999999999</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>26</v>
@@ -1953,17 +2056,23 @@
       </c>
       <c r="Q34" s="10"/>
     </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,9 +2084,13 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2000,317 +2113,339 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>2.946497E-2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>5.1127300000000001E-2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>4.1972990000000002E-2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>5.9402879999999998E-2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>6.7452719999999994E-2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>6.1982000000000002E-2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>6.9751229999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>3.2238989999999995E-2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>5.8341539999999997E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>4.7423909999999993E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>6.8270579999999997E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>7.8948439999999995E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>7.2095350000000002E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>8.3700750000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>3.5013019999999999E-2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>6.5555779999999994E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>5.2874839999999999E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>7.7138280000000004E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>9.0444159999999996E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>8.2208690000000001E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>9.7650260000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2.8758349999999998E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>5.296642E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>3.6551220000000002E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>5.8277519999999999E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>6.1170999999999996E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>6.1025219999999998E-2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>5.7857440000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>3.1414600000000001E-2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>6.0487180000000002E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>4.1098519999999999E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>6.6957660000000002E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>7.1619769999999999E-2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>7.0979100000000003E-2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>6.9824659999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>3.4070860000000001E-2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>6.8007940000000003E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>4.5645819999999997E-2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>7.5637789999999996E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>8.2068539999999995E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>8.0932980000000002E-2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>8.1791870000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>3.1168979999999999E-2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>4.4083549999999999E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>3.8403039999999999E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>4.9838750000000001E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>5.4362440000000005E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>5.024522E-2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>5.1296799999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>3.4227010000000002E-2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>5.0123830000000001E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>4.3258970000000001E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>5.7112429999999999E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>6.3676440000000001E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>5.840244E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>6.2170579999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>3.7285039999999998E-2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>5.6164110000000003E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>4.8114910000000004E-2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>6.4386100000000002E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>7.2990449999999998E-2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>6.6559649999999998E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>7.3044349999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>8.8000000000000009E-2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>8.8000000000000009E-2</v>
       </c>
-      <c r="D12" s="10">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="8">
+        <v>4.7699999999999992E-2</v>
+      </c>
+      <c r="E12" s="8">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>9.06E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>8.0700000000000008E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>9.0299999999999991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>5.2035430000000001E-2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>7.8003970000000006E-2</v>
       </c>
-      <c r="D13" s="10">
-        <v>4.1672909999999994E-2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>7.8645919999999994E-2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>8.6174829999999994E-2</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8.0730440000000001E-2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>8.5791129999999993E-2</v>
+      <c r="D13" s="8">
+        <v>4.6518940000000002E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>7.8677810000000001E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8.6192150000000009E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8.0743030000000007E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>8.5809060000000006E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,478 +2678,628 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="3">
         <v>0.14285700000000001</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="3">
         <v>0.14285700000000001</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="20">
         <v>0.14285709999999999</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="20">
         <v>0.14285709999999999</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="20">
         <v>0.14285709999999999</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="20">
         <v>0.14285709999999999</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="3">
         <v>0.14285700000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="K2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0.1550598</v>
+      </c>
+      <c r="P2" s="20">
+        <v>6.9933090000000003E-2</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>3.9111550000000002E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>8.5896E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="3">
         <v>0.13861399999999999</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>0.28712900000000002</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="20">
         <v>4.9504949999999999E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="20">
         <v>0.2376238</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="20">
         <v>2.9702969999999999E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="20">
         <v>0.20792079999999999</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="3">
         <v>4.9505E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="K3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.38682</v>
+      </c>
+      <c r="N3" s="20">
+        <v>1.6959290000000001E-17</v>
+      </c>
+      <c r="O3" s="20">
+        <v>3.905688E-3</v>
+      </c>
+      <c r="P3" s="20">
+        <v>6.6797419999999996E-2</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>8.504211E-19</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9.4076999999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="3">
         <v>0.28241500000000003</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="3">
         <v>0.14297899999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="20">
         <v>0.17785110000000001</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="20">
         <v>0.1187341</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="20">
         <v>9.272408E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="20">
         <v>0.1058735</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="3">
         <v>7.9422999999999994E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="K4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.38263999999999998</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0.1440978</v>
+      </c>
+      <c r="P4" s="20">
+        <v>4.6277020000000002E-2</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>0.111097</v>
+      </c>
+      <c r="R4" s="3">
+        <v>6.5889000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="3">
         <v>0.58546699999999996</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>0.39723000000000003</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
         <v>8.1315159999999995E-19</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="20">
         <v>2.2090620000000001E-18</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="3">
         <v>1.7302999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="K5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.31656000000000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.341227</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0.1159631</v>
+      </c>
+      <c r="P5" s="20">
+        <v>5.0955559999999997E-2</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0.1046309</v>
+      </c>
+      <c r="R5" s="3">
+        <v>7.0663000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>0.25</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>0.4</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="20">
         <v>6.8519800000000006E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="20">
         <v>0.20937829999999999</v>
       </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>3.7898300000000003E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="3">
         <v>3.4203999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="3">
         <v>0.25</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>0.4</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
         <v>5.3935629999999998E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="20">
         <v>0.14733979999999999</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="20">
         <v>1.145913E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>0.137265</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>0.25</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>0.4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="20">
         <v>6.1195459999999997E-20</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="20">
         <v>0.11853130000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="20">
         <v>9.9783159999999996E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="20">
         <v>2.3148309999999998E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="3">
         <v>0.10853699999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="3">
         <v>0.25</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>0.4</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
         <v>0.16697809999999999</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="20">
         <v>6.411567E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="20">
         <v>3.1915199999999998E-2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="3">
         <v>8.6990999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
-        <v>0.56642899999999996</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.31732700000000003</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2.331035E-18</v>
-      </c>
-      <c r="F10" s="9">
-        <v>7.2942389999999996E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.138412E-18</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.9062490000000001E-2</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2.4239E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="3">
+        <v>0.56269899999999995</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.31980399999999998</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>7.2133390000000006E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1.8574839999999999E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.6789E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="3">
         <v>0.25</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="3">
         <v>0.4</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.24417829999999999</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5.0030509999999997E-3</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6.0209329999999998E-2</v>
-      </c>
-      <c r="I11" s="9">
-        <v>4.0608999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="E11" s="20">
+        <v>9.4090569999999998E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.18669459999999999</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4.3644139999999998E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.5571E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="3">
         <v>0.25</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="3">
         <v>0.4</v>
       </c>
-      <c r="E12" s="9">
-        <v>4.2786449999999999E-17</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5.7107720000000001E-2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.1413027</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1.5915240000000001E-2</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5.7106669999999998E-2</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.14130400000000001</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1.5915260000000001E-2</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.13567399999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="3">
         <v>0.25</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>0.4</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.11304889999999999</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.10054109999999999</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2.918463E-2</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.107225</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="E13" s="20">
+        <v>1.484759E-17</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.11308029999999999</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.10052</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2.917028E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.107229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="3">
         <v>0.25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>0.4</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.15506149999999999</v>
-      </c>
-      <c r="G14" s="9">
-        <v>6.993241E-2</v>
-      </c>
-      <c r="H14" s="9">
-        <v>3.9110390000000002E-2</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.1550598</v>
+      </c>
+      <c r="G14" s="20">
+        <v>6.9933090000000003E-2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>3.9111550000000002E-2</v>
+      </c>
+      <c r="I14" s="3">
         <v>8.5896E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="9">
-        <v>0.35451199999999999</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.41036899999999998</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4.8158910000000002E-17</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.103296</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="C15" s="3">
+        <v>0.35450999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.41037099999999999</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2.2071139999999999E-17</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.1032959</v>
+      </c>
+      <c r="H15" s="20">
+        <v>2.4504240000000001E-17</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.131823</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9">
-        <v>0.40858699999999998</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.39757999999999999</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>8.3450120000000003E-2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2.76372E-17</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.11038199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="C16" s="3">
+        <v>0.40859000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.39757700000000001</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1.7306999999999999E-17</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1.118846E-17</v>
+      </c>
+      <c r="G16" s="20">
+        <v>8.3449019999999999E-2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.110384</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9">
-        <v>0.44839600000000002</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.386824</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>3.9106599999999998E-3</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6.6791359999999994E-2</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.8326830000000001E-17</v>
-      </c>
-      <c r="I17" s="9">
-        <v>9.4077999999999995E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="C17" s="3">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.38682</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1.6959290000000001E-17</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3.905688E-3</v>
+      </c>
+      <c r="G17" s="20">
+        <v>6.6797419999999996E-2</v>
+      </c>
+      <c r="H17" s="20">
+        <v>8.504211E-19</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9.4076999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="3">
         <v>0.25</v>
       </c>
-      <c r="D18" s="9">
-        <v>0.38310499999999997</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.14335329999999999</v>
-      </c>
-      <c r="G18" s="9">
-        <v>4.6417989999999999E-2</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.1112826</v>
-      </c>
-      <c r="I18" s="9">
-        <v>6.5841999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>0.38263999999999998</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.1440978</v>
+      </c>
+      <c r="G18" s="20">
+        <v>4.6277020000000002E-2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0.111097</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6.5889000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.31656000000000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.341227</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.1159631</v>
+      </c>
+      <c r="G19" s="20">
+        <v>5.0955559999999997E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.1046309</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7.0663000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="14" t="s">
         <v>0</v>
@@ -3038,7 +3323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>51</v>
       </c>
@@ -3064,7 +3349,7 @@
         <v>8.5896E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3090,15 +3375,30 @@
         <v>9.4077999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -3108,8 +3408,23 @@
       <c r="D30" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0.31656000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3119,8 +3434,23 @@
       <c r="D31" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.38682</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.38263999999999998</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.341227</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -3130,8 +3460,23 @@
       <c r="D32" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1.6959290000000001E-17</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -3141,8 +3486,23 @@
       <c r="D33" s="8">
         <v>0.15506149999999999</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.1550598</v>
+      </c>
+      <c r="I33" s="8">
+        <v>3.905688E-3</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.1440978</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.1159631</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -3152,8 +3512,23 @@
       <c r="D34" s="8">
         <v>6.993241E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="8">
+        <v>6.9933090000000003E-2</v>
+      </c>
+      <c r="I34" s="8">
+        <v>6.6797419999999996E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <v>4.6277020000000002E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>5.0955559999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -3163,8 +3538,23 @@
       <c r="D35" s="8">
         <v>3.9110390000000002E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3.9111550000000002E-2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>8.504211E-19</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.111097</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0.1046309</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -3174,9 +3564,24 @@
       <c r="D36" s="8">
         <v>8.5896E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="8">
+        <v>8.5896E-2</v>
+      </c>
+      <c r="I36" s="8">
+        <v>9.4076999999999994E-2</v>
+      </c>
+      <c r="J36" s="8">
+        <v>6.5889000000000003E-2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>7.0663000000000004E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="16" t="s">
         <v>53</v>
@@ -3185,7 +3590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>55</v>
       </c>
@@ -3196,7 +3601,7 @@
         <v>8.2679000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>26</v>
       </c>
@@ -3205,6 +3610,80 @@
       </c>
       <c r="D41" s="9">
         <v>0.117965</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7.1117E-2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7.2805999999999996E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.113708</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.118338</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="9">
+        <v>7.1117E-2</v>
+      </c>
+      <c r="G57" s="9">
+        <v>7.2805999999999996E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0.113708</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.118338</v>
       </c>
     </row>
   </sheetData>
@@ -3215,10 +3694,517 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B14:N70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="22"/>
+      <c r="F14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="24">
+        <v>3.4070860000000001E-2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>6.8007940000000003E-2</v>
+      </c>
+      <c r="H15" s="24">
+        <v>4.5645819999999997E-2</v>
+      </c>
+      <c r="I15" s="24">
+        <v>7.5637789999999996E-2</v>
+      </c>
+      <c r="J15" s="24">
+        <v>8.2068539999999995E-2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>8.0932980000000002E-2</v>
+      </c>
+      <c r="L15" s="24">
+        <v>8.1791870000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="H16" s="24">
+        <v>5.7699999999999994E-2</v>
+      </c>
+      <c r="I16" s="24">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="J16" s="24">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K16" s="24">
+        <v>8.0700000000000008E-2</v>
+      </c>
+      <c r="L16" s="24">
+        <v>9.0299999999999991E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="24">
+        <v>5.2035430000000001E-2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>7.8003970000000006E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>5.134089E-2</v>
+      </c>
+      <c r="I17" s="24">
+        <v>7.870684E-2</v>
+      </c>
+      <c r="J17" s="24">
+        <v>8.6207919999999993E-2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>8.0754490000000012E-2</v>
+      </c>
+      <c r="L17" s="24">
+        <v>8.5825379999999993E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>7.1125999999999995E-2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>7.2322999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.113716</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.117134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3.4070860000000001</v>
+      </c>
+      <c r="I30" s="3">
+        <v>6.8007939999999998</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4.5645819999999997</v>
+      </c>
+      <c r="K30" s="3">
+        <v>7.5637790000000003</v>
+      </c>
+      <c r="L30" s="3">
+        <v>8.2068539999999999</v>
+      </c>
+      <c r="M30" s="3">
+        <v>8.0932980000000008</v>
+      </c>
+      <c r="N30" s="3">
+        <v>8.1791870000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5.2035429999999998</v>
+      </c>
+      <c r="I32" s="3">
+        <v>7.8003970000000002</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5.1340890000000003</v>
+      </c>
+      <c r="K32" s="3">
+        <v>7.8706839999999998</v>
+      </c>
+      <c r="L32" s="3">
+        <v>8.6207919999999998</v>
+      </c>
+      <c r="M32" s="3">
+        <v>8.0754490000000008</v>
+      </c>
+      <c r="N32" s="3">
+        <v>8.5825379999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3.1414600000000001E-2</v>
+      </c>
+      <c r="E45" s="10">
+        <v>6.0487180000000002E-2</v>
+      </c>
+      <c r="F45" s="10">
+        <v>4.1098519999999999E-2</v>
+      </c>
+      <c r="G45" s="10">
+        <v>6.6957660000000002E-2</v>
+      </c>
+      <c r="H45" s="10">
+        <v>7.1619769999999999E-2</v>
+      </c>
+      <c r="I45" s="10">
+        <v>7.0979100000000003E-2</v>
+      </c>
+      <c r="J45" s="10">
+        <v>6.9824659999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E46" s="10">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="F46" s="10">
+        <v>5.7699999999999994E-2</v>
+      </c>
+      <c r="G46" s="10">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="H46" s="10">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I46" s="10">
+        <v>8.0700000000000008E-2</v>
+      </c>
+      <c r="J46" s="10">
+        <v>9.0299999999999991E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="10">
+        <v>5.0707300000000004E-2</v>
+      </c>
+      <c r="E47" s="10">
+        <v>7.4243589999999998E-2</v>
+      </c>
+      <c r="F47" s="10">
+        <v>4.9061630000000002E-2</v>
+      </c>
+      <c r="G47" s="10">
+        <v>7.4341500000000005E-2</v>
+      </c>
+      <c r="H47" s="10">
+        <v>8.0979460000000003E-2</v>
+      </c>
+      <c r="I47" s="10">
+        <v>7.5754420000000003E-2</v>
+      </c>
+      <c r="J47" s="10">
+        <v>7.9836110000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>6.6831000000000002E-2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>6.7981E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.11060200000000001</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.114438</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="10">
+        <v>2.8758349999999998E-2</v>
+      </c>
+      <c r="E60" s="10">
+        <v>5.296642E-2</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3.6551220000000002E-2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>5.8277519999999999E-2</v>
+      </c>
+      <c r="H60" s="10">
+        <v>6.1170999999999996E-2</v>
+      </c>
+      <c r="I60" s="10">
+        <v>6.1025219999999998E-2</v>
+      </c>
+      <c r="J60" s="10">
+        <v>5.7857440000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E61" s="10">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="F61" s="10">
+        <v>5.7699999999999994E-2</v>
+      </c>
+      <c r="G61" s="10">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="H61" s="10">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I61" s="10">
+        <v>8.0700000000000008E-2</v>
+      </c>
+      <c r="J61" s="10">
+        <v>9.0299999999999991E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="10">
+        <v>4.937917E-2</v>
+      </c>
+      <c r="E62" s="10">
+        <v>7.0483209999999991E-2</v>
+      </c>
+      <c r="F62" s="10">
+        <v>4.6782380000000005E-2</v>
+      </c>
+      <c r="G62" s="10">
+        <v>6.9976170000000004E-2</v>
+      </c>
+      <c r="H62" s="10">
+        <v>7.5751010000000008E-2</v>
+      </c>
+      <c r="I62" s="10">
+        <v>7.0754349999999994E-2</v>
+      </c>
+      <c r="J62" s="10">
+        <v>7.3846839999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="9">
+        <v>6.2636999999999998E-2</v>
+      </c>
+      <c r="F68" s="9">
+        <v>6.3816999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.107309</v>
+      </c>
+      <c r="F69" s="9">
+        <v>0.111875</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:V2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,19 +4259,19 @@
         <v>7.8003970000000006E-2</v>
       </c>
       <c r="R2" s="10">
-        <v>4.1672909999999994E-2</v>
+        <v>4.6518940000000002E-2</v>
       </c>
       <c r="S2" s="10">
-        <v>7.8645919999999994E-2</v>
+        <v>7.8677810000000001E-2</v>
       </c>
       <c r="T2" s="10">
-        <v>8.6174829999999994E-2</v>
+        <v>8.6192150000000009E-2</v>
       </c>
       <c r="U2" s="10">
-        <v>8.0730440000000001E-2</v>
+        <v>8.0743030000000007E-2</v>
       </c>
       <c r="V2" s="10">
-        <v>8.5791129999999993E-2</v>
+        <v>8.5809060000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.25">
